--- a/Excel Data/TDR/SpecialRateLCY.xlsx
+++ b/Excel Data/TDR/SpecialRateLCY.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>CUSTOMER.ID</t>
   </si>
@@ -37,6 +37,36 @@
   </si>
   <si>
     <t>SND07LCY</t>
+  </si>
+  <si>
+    <t>INTEREST.RATE</t>
+  </si>
+  <si>
+    <t>INTEND.DATE</t>
+  </si>
+  <si>
+    <t>CUST.REMARKS:1</t>
+  </si>
+  <si>
+    <t>TAX.INTEREST.TYPE:1</t>
+  </si>
+  <si>
+    <t>DRAWDOWN.ACCOUNT</t>
+  </si>
+  <si>
+    <t>PRIN.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>INT.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>CHRG.LIQ.ACCT</t>
+  </si>
+  <si>
+    <t>FINAL.MATURITY</t>
+  </si>
+  <si>
+    <t>EXP.DATE</t>
   </si>
 </sst>
 </file>
@@ -354,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,7 +399,7 @@
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,10 +413,40 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
         <v>4</v>
       </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12105488</v>
       </c>
@@ -399,7 +459,7 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2">
+      <c r="M2">
         <v>2</v>
       </c>
     </row>
